--- a/flows/SHY_fund_flow_data.xlsx
+++ b/flows/SHY_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5443"/>
+  <dimension ref="A1:B5451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54865,6 +54865,86 @@
         <v>-155.0341</v>
       </c>
     </row>
+    <row r="5444">
+      <c r="A5444" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B5444" t="n">
+        <v>-114.3436</v>
+      </c>
+    </row>
+    <row r="5445">
+      <c r="A5445" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B5445" t="n">
+        <v>-155.2393</v>
+      </c>
+    </row>
+    <row r="5446">
+      <c r="A5446" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B5446" t="n">
+        <v>-285.65634</v>
+      </c>
+    </row>
+    <row r="5447">
+      <c r="A5447" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B5447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5448">
+      <c r="A5448" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B5448" t="n">
+        <v>-16.32658</v>
+      </c>
+    </row>
+    <row r="5449">
+      <c r="A5449" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B5449" t="n">
+        <v>-81.6343</v>
+      </c>
+    </row>
+    <row r="5450">
+      <c r="A5450" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B5450" t="n">
+        <v>-57.1921</v>
+      </c>
+    </row>
+    <row r="5451">
+      <c r="A5451" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B5451" t="n">
+        <v>24.52776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
